--- a/backend/리디북스_데이터설계.xlsx
+++ b/backend/리디북스_데이터설계.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,6 +627,10 @@
   </si>
   <si>
     <t>도서 정보의 번호로 저자와 관련성을 맺어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,8 +1107,8 @@
   </sheetPr>
   <dimension ref="B1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1226,7 +1230,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="F11" s="1"/>
     </row>

--- a/backend/리디북스_데이터설계.xlsx
+++ b/backend/리디북스_데이터설계.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,530 +107,534 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용약관 동의(필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트, 혜택 알림 수신동의(선택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 생년 정보 제공 동의(선택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 정보 수집 및 이용 동의(필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종이책 정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자책 정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pb_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eb_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출간 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publication_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듣기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listening_func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supported_dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보테이블:memberInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작품 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사 서평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서상세정보:book_details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub_eview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서기본정보:book_basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자:author_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translator</t>
+  </si>
+  <si>
+    <t>국적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데뷔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>career</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 내역:payment_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리디캐시 사용액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리디포인트 사용액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG 결제 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립 리디포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화비 소득공제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 상품권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voucher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ridicash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ridipoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earned_points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_buyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서부가정보:book_additional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk( AI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk(AI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점:rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 정보의 번호로 저자와 관련성을 맺어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용약관 동의(필수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>agree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>personal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트, 혜택 알림 수신동의(선택)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별, 생년 정보 제공 동의(선택)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인 정보 수집 및 이용 동의(필수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null 허용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subtitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publisher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종이책 정가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자책 정가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pb_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eb_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출간 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISBN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>publication_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isbn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>듣기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원 기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listening_func</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supported_dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보테이블:memberInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작품 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사 서평</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서상세정보:book_details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book_intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub_eview</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서기본정보:book_basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자:author_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>translator</t>
-  </si>
-  <si>
-    <t>국적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데뷔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>author_details</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>education</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>career</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>author_book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 내역:payment_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠폰할인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리디캐시 사용액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리디포인트 사용액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG 결제 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 수단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립 리디포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화비 소득공제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchase_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coupon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 상품권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voucher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ridicash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ridipoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pg_payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>earned_points</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매자 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if_buyer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서부가정보:book_additional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk( AI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk(AI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별점:rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>author_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null 허용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>author_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서 정보의 번호로 저자와 관련성을 맺어줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1112,7 @@
   <dimension ref="B1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1126,7 +1130,7 @@
     <row r="3" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1147,21 +1151,21 @@
         <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -1173,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1201,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -1230,9 +1234,11 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
@@ -1243,65 +1249,67 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="13" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1322,21 +1330,21 @@
         <v>21</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -1345,7 +1353,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
@@ -1355,41 +1363,41 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -1398,40 +1406,40 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -1441,48 +1449,48 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1503,45 +1511,45 @@
         <v>21</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
@@ -1551,10 +1559,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
@@ -1564,23 +1572,23 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
@@ -1590,7 +1598,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1611,66 +1619,66 @@
         <v>21</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -1691,155 +1699,155 @@
         <v>21</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
       <c r="I55" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -1860,45 +1868,45 @@
         <v>21</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1906,13 +1914,13 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>1</v>
@@ -1921,23 +1929,23 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
@@ -1947,38 +1955,38 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1986,7 +1994,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2007,30 +2015,30 @@
         <v>21</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
@@ -2040,10 +2048,10 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
@@ -2053,90 +2061,90 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
@@ -2146,27 +2154,27 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F93" s="1"/>
     </row>

--- a/backend/리디북스_데이터설계.xlsx
+++ b/backend/리디북스_데이터설계.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="176">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,23 +562,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk( AI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk(AI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점:rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>member_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 정보의 번호로 저자와 관련성을 맺어줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk( AI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk(AI)</t>
+    <t>null 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 / 탈퇴 시간 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberinfo_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appnightagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 테이블 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,55 +690,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>별점:rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>author_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null 허용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>author_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서 정보의 번호로 저자와 관련성을 맺어줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null 허용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
+    <t>회원 마케팅 수신동의:marketinginfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원마케팅수신동의 pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보테이블 pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독 받을 이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 구독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 푸시 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야간 앱 푸시 수신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +790,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,14 +827,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>122714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>564502</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190838</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -782,14 +865,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>92234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>328277</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>130434</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130433</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1109,17 +1192,17 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:I93"/>
+  <dimension ref="B1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="2"/>
     <col min="2" max="2" width="29.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.796875" style="2"/>
     <col min="5" max="5" width="10.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="2"/>
@@ -1129,13 +1212,13 @@
     <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
@@ -1156,16 +1239,16 @@
     </row>
     <row r="6" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -1177,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1234,10 +1317,10 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1249,10 +1332,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1295,898 +1378,1033 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="8" t="s">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="1" t="s">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="1" t="s">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="4" t="s">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1"/>
+      <c r="B38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>54</v>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>4</v>
+      <c r="E41" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="1"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="6" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C47" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="1"/>
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B49" s="4" t="s">
-        <v>64</v>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B52" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B53" s="1" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B54" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B55" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="4"/>
-      <c r="I55" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B60" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B63" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B65" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="4"/>
+      <c r="I66" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B63" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B70" s="1" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F71" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B75" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B76" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B77" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B80" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F82" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="1" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F85" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F86" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D87" s="1"/>
-      <c r="E87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B88" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B89" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B90" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B91" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="1"/>
+      <c r="B91" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F104" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B66:F66"/>
+  <mergeCells count="8">
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B77:F77"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
